--- a/tests/test-files/Payors/Payors.xlsx
+++ b/tests/test-files/Payors/Payors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\PycharmProjects\cr-fn-2\tests\test-files\Payors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D149DE0-D080-428B-9922-B0B79F66519F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F7F539-791B-4D94-8076-194F9764CA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="31410" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30585" yWindow="3900" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="3">
   <si>
     <t>resource_id</t>
   </si>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="F491" sqref="F491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,10 +398,4504 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="A3">
+        <f>A2</f>
+        <v>50704127</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="0">A3</f>
+        <v>50704127</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>50704127</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A131" si="1">A67</f>
+        <v>50704127</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="1"/>
+        <v>50704127</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" ref="A132:A195" si="2">A131</f>
+        <v>50704127</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" si="2"/>
+        <v>50704127</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" ref="A196:A259" si="3">A195</f>
+        <v>50704127</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" si="3"/>
+        <v>50704127</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" ref="A260:A323" si="4">A259</f>
+        <v>50704127</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <f t="shared" si="4"/>
+        <v>50704127</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <f t="shared" ref="A324:A387" si="5">A323</f>
+        <v>50704127</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <f t="shared" si="5"/>
+        <v>50704127</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <f t="shared" ref="A388:A451" si="6">A387</f>
+        <v>50704127</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <f t="shared" si="6"/>
+        <v>50704127</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <f t="shared" ref="A452:A502" si="7">A451</f>
+        <v>50704127</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <f t="shared" si="7"/>
+        <v>50704127</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
